--- a/output/output.xlsx
+++ b/output/output.xlsx
@@ -9,19 +9,18 @@
   <sheets>
     <sheet name="distance_error" sheetId="1" r:id="rId1"/>
     <sheet name="execution_time" sheetId="2" r:id="rId2"/>
-    <sheet name="Karate-candidates_src" sheetId="3" r:id="rId3"/>
-    <sheet name="Football-candidates_src" sheetId="4" r:id="rId4"/>
-    <sheet name="Dolphin-candidates_src" sheetId="5" r:id="rId5"/>
-    <sheet name="albert barabasi-candidates_src" sheetId="6" r:id="rId6"/>
-    <sheet name="erdos renyi-candidates_src" sheetId="7" r:id="rId7"/>
-    <sheet name="Adjective Noun-candidates_src" sheetId="8" r:id="rId8"/>
+    <sheet name="ER_100_0.02-candidates_src" sheetId="3" r:id="rId3"/>
+    <sheet name="ER_100_0.04-candidates_src" sheetId="4" r:id="rId4"/>
+    <sheet name="ER_100_0.06-candidates_src" sheetId="5" r:id="rId5"/>
+    <sheet name="ER_100_0.08-candidates_src" sheetId="6" r:id="rId6"/>
+    <sheet name="ER_100_0.10-candidates_src" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="9">
   <si>
     <t>GFHF</t>
   </si>
@@ -35,22 +34,19 @@
     <t>PTVA</t>
   </si>
   <si>
-    <t>Karate</t>
+    <t>ER_100_0.02</t>
   </si>
   <si>
-    <t>Football</t>
+    <t>ER_100_0.04</t>
   </si>
   <si>
-    <t>Dolphin</t>
+    <t>ER_100_0.06</t>
   </si>
   <si>
-    <t>albert barabasi</t>
+    <t>ER_100_0.08</t>
   </si>
   <si>
-    <t>erdos renyi</t>
-  </si>
-  <si>
-    <t>Adjective Noun</t>
+    <t>ER_100_0.10</t>
   </si>
 </sst>
 </file>
@@ -408,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -433,16 +429,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>1.4</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="C2">
-        <v>1.466666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="D2">
-        <v>2.466666666666667</v>
+        <v>7.766666666666667</v>
       </c>
       <c r="E2">
-        <v>1.766666666666667</v>
+        <v>5.166666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -450,16 +446,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1.633333333333333</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="C3">
-        <v>1.466666666666667</v>
+        <v>1.866666666666667</v>
       </c>
       <c r="D3">
-        <v>2.1</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="E3">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -470,13 +466,13 @@
         <v>2.133333333333333</v>
       </c>
       <c r="C4">
-        <v>1.833333333333333</v>
+        <v>2.233333333333333</v>
       </c>
       <c r="D4">
-        <v>3.033333333333333</v>
+        <v>2.466666666666667</v>
       </c>
       <c r="E4">
-        <v>2.233333333333333</v>
+        <v>2.633333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -484,16 +480,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="C5">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="D5">
-        <v>1.9</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="E5">
-        <v>1.9</v>
+        <v>2.266666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -501,32 +497,15 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>1.8</v>
+        <v>1.566666666666667</v>
       </c>
       <c r="C6">
-        <v>1.433333333333333</v>
+        <v>1.566666666666667</v>
       </c>
       <c r="D6">
-        <v>1.5</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="E6">
-        <v>1.666666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>1.5</v>
-      </c>
-      <c r="C7">
-        <v>1.833333333333333</v>
-      </c>
-      <c r="D7">
-        <v>2.1</v>
-      </c>
-      <c r="E7">
         <v>2.266666666666667</v>
       </c>
     </row>
@@ -537,7 +516,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -562,16 +541,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.005672656133416846</v>
+        <v>0.1240588532333883</v>
       </c>
       <c r="C2">
-        <v>0.005589915666708596</v>
+        <v>0.00684674656658899</v>
       </c>
       <c r="D2">
-        <v>0.07833036581675211</v>
+        <v>0.09787790775299073</v>
       </c>
       <c r="E2">
-        <v>0.03712319533030192</v>
+        <v>0.204449725151062</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -579,16 +558,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.01356093230009113</v>
+        <v>0.01054659920033979</v>
       </c>
       <c r="C3">
-        <v>0.008844796433246907</v>
+        <v>0.006806956966102007</v>
       </c>
       <c r="D3">
-        <v>0.7190179347991943</v>
+        <v>0.4280467987060547</v>
       </c>
       <c r="E3">
-        <v>0.2419543663660685</v>
+        <v>0.1918005386988322</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -596,16 +575,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.01458041196668394</v>
+        <v>0.007981784666480963</v>
       </c>
       <c r="C4">
-        <v>0.006105385366602907</v>
+        <v>0.006838881033763755</v>
       </c>
       <c r="D4">
-        <v>0.1714857975641886</v>
+        <v>0.5146358013153076</v>
       </c>
       <c r="E4">
-        <v>0.08496975104014079</v>
+        <v>0.1825302044550578</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -613,16 +592,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.007493279866654727</v>
+        <v>0.007472004166872163</v>
       </c>
       <c r="C5">
-        <v>0.00724028506653364</v>
+        <v>0.006829194666473389</v>
       </c>
       <c r="D5">
-        <v>0.4817076047261556</v>
+        <v>0.6076743920644124</v>
       </c>
       <c r="E5">
-        <v>0.1899010260899862</v>
+        <v>0.1789777994155884</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -630,33 +609,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.009851275300115958</v>
+        <v>0.008606947932761008</v>
       </c>
       <c r="C6">
-        <v>0.009306442433262419</v>
+        <v>0.007377197900617223</v>
       </c>
       <c r="D6">
-        <v>0.7357929786046346</v>
+        <v>0.6202786048253377</v>
       </c>
       <c r="E6">
-        <v>0.1978571176528931</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.009626630199818464</v>
-      </c>
-      <c r="C7">
-        <v>0.00813987583336105</v>
-      </c>
-      <c r="D7">
-        <v>0.3906985839207967</v>
-      </c>
-      <c r="E7">
-        <v>0.2231988986333211</v>
+        <v>0.1830856084823608</v>
       </c>
     </row>
   </sheetData>
@@ -691,16 +653,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D2">
+        <v>29</v>
+      </c>
+      <c r="E2">
         <v>27</v>
-      </c>
-      <c r="E2">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -708,16 +670,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -725,16 +687,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -742,16 +704,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -759,16 +721,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -776,16 +738,16 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>19</v>
-      </c>
       <c r="E7">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -793,16 +755,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E8">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -810,16 +772,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E9">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -827,16 +789,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -844,16 +806,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -861,16 +823,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E12">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -878,16 +840,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -895,16 +857,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -912,16 +874,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -929,16 +891,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E16">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -946,16 +908,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -963,16 +925,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E18">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -980,16 +942,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -997,16 +959,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1014,16 +976,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E21">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1031,16 +993,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1048,16 +1010,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E23">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1065,16 +1027,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1082,16 +1044,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1099,16 +1061,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1116,16 +1078,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E27">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1133,16 +1095,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D28">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E28">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1150,16 +1112,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E29">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1167,16 +1129,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1184,16 +1146,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1228,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C2">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="E2">
-        <v>74</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1245,16 +1207,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1262,16 +1224,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1279,16 +1241,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1296,16 +1258,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C6">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1313,16 +1275,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1330,16 +1292,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E8">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1347,16 +1309,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="E9">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1364,16 +1326,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="E10">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1381,16 +1343,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1398,16 +1360,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1415,16 +1377,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E13">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1432,16 +1394,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1449,16 +1411,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C15">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E15">
-        <v>71</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1466,16 +1428,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E16">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1483,16 +1445,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="C17">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="E17">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1500,16 +1462,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E18">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1517,16 +1479,16 @@
         <v>17</v>
       </c>
       <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>54</v>
+      </c>
+      <c r="E19">
         <v>33</v>
-      </c>
-      <c r="C19">
-        <v>40</v>
-      </c>
-      <c r="D19">
-        <v>78</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1534,16 +1496,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1551,16 +1513,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C21">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E21">
-        <v>41</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1568,16 +1530,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E22">
-        <v>78</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1585,16 +1547,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D23">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="E23">
-        <v>76</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1602,16 +1564,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D24">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E24">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1619,16 +1581,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1636,16 +1598,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E26">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1653,16 +1615,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E27">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1670,16 +1632,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C28">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="E28">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1687,16 +1649,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D29">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="E29">
-        <v>74</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1704,16 +1666,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C30">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E30">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1721,16 +1683,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C31">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1765,16 +1727,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1782,16 +1744,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1799,16 +1761,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1816,16 +1778,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1833,16 +1795,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C6">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1850,16 +1812,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E7">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1867,16 +1829,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1884,16 +1846,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1901,13 +1863,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E10">
         <v>34</v>
@@ -1918,16 +1880,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E11">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1935,16 +1897,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C12">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1952,16 +1914,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1969,16 +1931,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="E14">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1986,16 +1948,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2003,16 +1965,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E16">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2020,13 +1982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="E17">
         <v>33</v>
@@ -2037,16 +1999,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2054,16 +2016,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E19">
-        <v>27</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2071,16 +2033,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
         <v>9</v>
       </c>
-      <c r="D20">
-        <v>14</v>
-      </c>
       <c r="E20">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2088,16 +2050,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E21">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2105,16 +2067,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E22">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2122,16 +2084,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="E23">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2142,13 +2104,13 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2156,16 +2118,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D25">
         <v>32</v>
       </c>
       <c r="E25">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2173,16 +2135,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E26">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2190,16 +2152,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="E27">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2207,16 +2169,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="E28">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2224,16 +2186,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2241,16 +2203,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="D30">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E30">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2258,16 +2220,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C31">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D31">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="E31">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2302,16 +2264,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D2">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2319,16 +2281,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E3">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2336,16 +2298,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2353,16 +2315,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E5">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2370,16 +2332,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C6">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2387,16 +2349,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E7">
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2404,16 +2366,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="E8">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2421,16 +2383,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E9">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2438,16 +2400,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C10">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2455,16 +2417,16 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>56</v>
+      </c>
+      <c r="C11">
         <v>41</v>
       </c>
-      <c r="C11">
-        <v>85</v>
-      </c>
       <c r="D11">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E11">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2475,13 +2437,13 @@
         <v>41</v>
       </c>
       <c r="C12">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D12">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="E12">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2495,10 +2457,10 @@
         <v>41</v>
       </c>
       <c r="D13">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E13">
-        <v>34</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2506,16 +2468,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2523,16 +2485,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C15">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2540,16 +2502,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D16">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E16">
-        <v>29</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2557,16 +2519,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2574,16 +2536,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D18">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="E18">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2591,16 +2553,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C19">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2608,16 +2570,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C20">
         <v>41</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="E20">
-        <v>83</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2625,16 +2587,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C21">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="D21">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2642,16 +2604,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C22">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2659,16 +2621,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C23">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E23">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2676,16 +2638,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C24">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D24">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E24">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2693,16 +2655,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E25">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2710,16 +2672,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C26">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="E26">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2727,16 +2689,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C27">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E27">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2744,16 +2706,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="C28">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D28">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E28">
-        <v>82</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2761,13 +2723,13 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C29">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E29">
         <v>49</v>
@@ -2778,16 +2740,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C30">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D30">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="E30">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2795,16 +2757,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E31">
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2839,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D2">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="E2">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2856,16 +2818,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C3">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E3">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2873,16 +2835,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2890,16 +2852,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C5">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>85</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2907,16 +2869,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E6">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2924,16 +2886,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C7">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E7">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2941,16 +2903,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C8">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E8">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2958,16 +2920,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C9">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="D9">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E9">
-        <v>79</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2975,16 +2937,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E10">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2992,16 +2954,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3009,16 +2971,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C12">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E12">
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3026,16 +2988,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C13">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3043,16 +3005,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="E14">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3060,16 +3022,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3077,16 +3039,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E16">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3094,16 +3056,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D17">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="E17">
-        <v>79</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3111,16 +3073,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3128,16 +3090,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="E19">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3145,16 +3107,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="E20">
-        <v>84</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3162,16 +3124,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C21">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E21">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3179,16 +3141,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E22">
-        <v>82</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3196,16 +3158,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="E23">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3213,16 +3175,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E24">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3230,16 +3192,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="D25">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E25">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3247,16 +3209,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C26">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D26">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="E26">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3264,16 +3226,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E27">
-        <v>84</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3281,16 +3243,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="C28">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D28">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E28">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3298,16 +3260,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D29">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E29">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3315,16 +3277,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C30">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E30">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3332,553 +3294,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E31">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>62</v>
-      </c>
-      <c r="C2">
-        <v>73</v>
-      </c>
-      <c r="D2">
-        <v>47</v>
-      </c>
-      <c r="E2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>58</v>
-      </c>
-      <c r="C3">
-        <v>47</v>
-      </c>
-      <c r="D3">
-        <v>81</v>
-      </c>
-      <c r="E3">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>49</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>61</v>
-      </c>
-      <c r="E4">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>56</v>
-      </c>
-      <c r="C5">
-        <v>75</v>
-      </c>
-      <c r="D5">
-        <v>83</v>
-      </c>
-      <c r="E5">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>49</v>
-      </c>
-      <c r="C6">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>33</v>
-      </c>
-      <c r="E6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>58</v>
-      </c>
-      <c r="C7">
-        <v>49</v>
-      </c>
-      <c r="D7">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>56</v>
-      </c>
-      <c r="C8">
-        <v>63</v>
-      </c>
-      <c r="D8">
-        <v>75</v>
-      </c>
-      <c r="E8">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>49</v>
-      </c>
-      <c r="C9">
-        <v>28</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>49</v>
-      </c>
-      <c r="C10">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>76</v>
-      </c>
-      <c r="E10">
         <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>49</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
-      <c r="E11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>49</v>
-      </c>
-      <c r="C12">
-        <v>49</v>
-      </c>
-      <c r="D12">
-        <v>81</v>
-      </c>
-      <c r="E12">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>49</v>
-      </c>
-      <c r="C13">
-        <v>57</v>
-      </c>
-      <c r="D13">
-        <v>81</v>
-      </c>
-      <c r="E13">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <v>74</v>
-      </c>
-      <c r="D14">
-        <v>6</v>
-      </c>
-      <c r="E14">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>49</v>
-      </c>
-      <c r="C15">
-        <v>49</v>
-      </c>
-      <c r="D15">
-        <v>30</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>29</v>
-      </c>
-      <c r="C16">
-        <v>47</v>
-      </c>
-      <c r="D16">
-        <v>74</v>
-      </c>
-      <c r="E16">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>71</v>
-      </c>
-      <c r="D17">
-        <v>68</v>
-      </c>
-      <c r="E17">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>58</v>
-      </c>
-      <c r="C18">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>80</v>
-      </c>
-      <c r="E18">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>49</v>
-      </c>
-      <c r="C19">
-        <v>49</v>
-      </c>
-      <c r="D19">
-        <v>78</v>
-      </c>
-      <c r="E19">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>58</v>
-      </c>
-      <c r="C20">
-        <v>33</v>
-      </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>49</v>
-      </c>
-      <c r="C21">
-        <v>42</v>
-      </c>
-      <c r="D21">
-        <v>77</v>
-      </c>
-      <c r="E21">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>61</v>
-      </c>
-      <c r="C22">
-        <v>85</v>
-      </c>
-      <c r="D22">
-        <v>82</v>
-      </c>
-      <c r="E22">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>49</v>
-      </c>
-      <c r="C23">
-        <v>67</v>
-      </c>
-      <c r="D23">
-        <v>74</v>
-      </c>
-      <c r="E23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>49</v>
-      </c>
-      <c r="C24">
-        <v>49</v>
-      </c>
-      <c r="D24">
-        <v>77</v>
-      </c>
-      <c r="E24">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>49</v>
-      </c>
-      <c r="C25">
-        <v>47</v>
-      </c>
-      <c r="D25">
-        <v>69</v>
-      </c>
-      <c r="E25">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>29</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>81</v>
-      </c>
-      <c r="E26">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>49</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>78</v>
-      </c>
-      <c r="E27">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>77</v>
-      </c>
-      <c r="C28">
-        <v>64</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>79</v>
-      </c>
-      <c r="C29">
-        <v>79</v>
-      </c>
-      <c r="D29">
-        <v>10</v>
-      </c>
-      <c r="E29">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>49</v>
-      </c>
-      <c r="C30">
-        <v>79</v>
-      </c>
-      <c r="D30">
-        <v>47</v>
-      </c>
-      <c r="E30">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>56</v>
-      </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
